--- a/multi-material/material-bc-load2.xlsx
+++ b/multi-material/material-bc-load2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\multi-material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5F90F9-7668-4373-BC1F-F3ECEB617D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63D193E-4844-4630-80E8-99C1B78EC8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
   </bookViews>
@@ -596,7 +596,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -658,13 +658,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -677,16 +677,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -694,21 +694,21 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -724,13 +724,13 @@
         <v>0.5</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2">
         <v>0.5</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
